--- a/biology/Zoologie/Elymnias/Elymnias.xlsx
+++ b/biology/Zoologie/Elymnias/Elymnias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Elymnias regroupe des papillons de la famille des Nymphalidae, de la  sous-famille des Satyrinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Elymnias a été donné par  Jakob Hübner en 1818.
 Ils sont présents en Australasie et en Afrique. Tous, ailes repliées, ressemblent à des feuilles.
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elymnias agondas (Boisduval, 1832)
 Elymnias agondas agondas
@@ -567,7 +583,7 @@
 Elymnias beza kochi Semper, 1887
 Elymnias beza samarana Schröder et Treadaway
 Elymnias brookei Shelford, 1904
-Elymnias casiphone Geyer, [1827]
+Elymnias casiphone Geyer, 
 Elymnias casiphone casiphone
 Elymnias casiphone aluna Fruhstorfer
 Elymnias casiphone djilantik Martin
@@ -587,7 +603,7 @@
 Elymnias congruens rafaela Fruhstorfer, 1907
 Elymnias congruens subcongruens Semper
 Elymnias cottonis (Hewitson, 1874)
-Elymnias cumaea C. et R. Felder, [1867]
+Elymnias cumaea C. et R. Felder, 
 Elymnias cumaea cumaea
 Elymnias cumaea bornemanni Ribbe, 1889
 Elymnias cumaea phrikonis Fruhstorfer, 1899
@@ -640,16 +656,16 @@
 Elymnias hypermnestra meridionalis Fruhstorfer, 1902 dans le sud du Viet-Nam, du Laos et de la Thaïlande.
 Elymnias hypermnestra nimota Corbet, 1937
 Elymnias hypermnestra septentrionalis Zhou et Huang, 1994 en Chine.
-Elymnias hypermnestra tinctoria Moore, [1879] en Thaïlande et Malaisie.
+Elymnias hypermnestra tinctoria Moore,  en Thaïlande et Malaisie.
 Elymnias hypermnestra tonkiniana Fruhstorfer, 1902 Au Viet-Nam, Laos et Cambodge.
-Elymnias hypermnestra undularis (Drury, [1773]) en Inde et en Birmanie
-Elymnias kamara Moore, [1858]
+Elymnias hypermnestra undularis (Drury, ) en Inde et en Birmanie
+Elymnias kamara Moore, 
 Elymnias kamara kamara
 Elymnias kamara erinyes de Nicéville, 1895
 Elymnias kamara exclusa de Nicéville
 Elymnias kamara lombokiana Fruhstorfer
 Elymnias kanekoi Tsukada &amp; Nishiyama, 1980
-Elymnias kuenstleri Honrath, [1885]
+Elymnias kuenstleri Honrath, 
 Elymnias kuenstleri kuenstleri
 Elymnias kuenstleri gauroides Fruhstorfer
 Elymnias kuenstleri rileyi Corbet
@@ -686,7 +702,7 @@
 Elymnias panthera bangueyana Fruhstorfer, 1899
 Elymnias panthera dolorosa Butler, 1883
 Elymnias panthera dulcibella Fruhstorfer, 1907
-Elymnias panthera dusara Horsfield, [1829]
+Elymnias panthera dusara Horsfield, 
 Elymnias panthera enganica Doherty, 1891
 Elymnias panthera labuana Staudinger, 1889
 Elymnias panthera lacrima Fruhstorfer, 1904
@@ -715,11 +731,11 @@
 Elymnias penanga konga Grose-Smith, 1889
 Elymnias penanga sumatrana Wallace, 1869
 Elymnias lise (Hemming, 1960) dans l'ouest de l'Afrique.
-Elymnias singhala Moore, [1875]
+Elymnias singhala Moore, 
 Elymnias vasudeva Moore, 1857
 Elymnias vasudeva vasudeva
 Elymnias vasudeva burmensis (Moore, 1893)
-Elymnias vitellia (Stoll, [1781])
+Elymnias vitellia (Stoll, )
 Elymnias vitellia vitellia
 Elymnias vitellia viminalis Wallace, 1869</t>
         </is>
